--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value585.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value585.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.131353044901436</v>
+        <v>1.100031495094299</v>
       </c>
       <c r="B1">
-        <v>1.73959181006032</v>
+        <v>1.940863251686096</v>
       </c>
       <c r="C1">
-        <v>1.848176102668059</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.103983356350546</v>
+        <v>2.014314413070679</v>
       </c>
       <c r="E1">
-        <v>2.154854303608022</v>
+        <v>1.124070763587952</v>
       </c>
     </row>
   </sheetData>
